--- a/resultados_nacional_CEPAL.xlsx
+++ b/resultados_nacional_CEPAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/andres_gutierrez_un_org/Documents/CEPAL/Misiones/2022/CRI/github/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/andres_gutierrez_un_org/Documents/CEPAL/Misiones/2022/CRI/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_1C14A40084D57D917034D82F9B9C9F6FBBBA355A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4EBAD4-BFA5-4A13-90EA-E4D57783EB5E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_1C14A40084D57D917034D82F9B9C9F6FBBBA355A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4CD036-83ED-4698-B7C1-B9EAB0939ED7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tablaMuestreo_desoc_Nacional" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +89,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,17 +137,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -469,453 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6.5385609651012491</v>
-      </c>
-      <c r="C2">
-        <v>1.1078031981472429</v>
-      </c>
-      <c r="D2">
-        <v>2321</v>
-      </c>
-      <c r="E2">
-        <v>11601</v>
-      </c>
-      <c r="F2">
-        <v>15176</v>
-      </c>
-      <c r="G2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>37385.435122733223</v>
-      </c>
-      <c r="K2" s="4">
-        <v>86771594.91986379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7.854618879353862</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.133992507559163</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1981</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11885</v>
-      </c>
-      <c r="F3" s="2">
-        <v>15560</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="2">
-        <v>48498.64718832956</v>
-      </c>
-      <c r="K3" s="5">
-        <v>96075820.080080852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>9.1737629459148451</v>
-      </c>
-      <c r="C4">
-        <v>1.161953979630328</v>
-      </c>
-      <c r="D4">
-        <v>1738</v>
-      </c>
-      <c r="E4">
-        <v>12170</v>
-      </c>
-      <c r="F4">
-        <v>15944</v>
-      </c>
-      <c r="G4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I4">
-        <v>0.05</v>
-      </c>
-      <c r="J4">
-        <v>58347.748067753419</v>
-      </c>
-      <c r="K4" s="4">
-        <v>101408386.14175551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>10.48747591522158</v>
-      </c>
-      <c r="C5">
-        <v>1.1835736657673579</v>
-      </c>
-      <c r="D5">
-        <v>1557</v>
-      </c>
-      <c r="E5">
-        <v>12456</v>
-      </c>
-      <c r="F5">
-        <v>16329</v>
-      </c>
-      <c r="G5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I5">
-        <v>0.05</v>
-      </c>
-      <c r="J5">
-        <v>67385.39825712773</v>
-      </c>
-      <c r="K5" s="4">
-        <v>104919065.08634789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>11.802966101694921</v>
-      </c>
-      <c r="C6">
-        <v>1.2049226183791599</v>
-      </c>
-      <c r="D6">
-        <v>1416</v>
-      </c>
-      <c r="E6">
-        <v>12741</v>
-      </c>
-      <c r="F6">
-        <v>16713</v>
-      </c>
-      <c r="G6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I6">
-        <v>0.05</v>
-      </c>
-      <c r="J6">
-        <v>75901.22100636801</v>
-      </c>
-      <c r="K6" s="4">
-        <v>107476128.9450171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>13.13133640552995</v>
-      </c>
-      <c r="C7">
-        <v>1.2324772207037671</v>
-      </c>
-      <c r="D7">
-        <v>1302</v>
-      </c>
-      <c r="E7">
-        <v>13026</v>
-      </c>
-      <c r="F7">
-        <v>17097</v>
-      </c>
-      <c r="G7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I7">
-        <v>0.05</v>
-      </c>
-      <c r="J7">
-        <v>84071.111590994871</v>
-      </c>
-      <c r="K7" s="4">
-        <v>109460587.2914753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>14.447107438016531</v>
-      </c>
-      <c r="C8">
-        <v>1.2534384301620549</v>
-      </c>
-      <c r="D8">
-        <v>1210</v>
-      </c>
-      <c r="E8">
-        <v>13311</v>
-      </c>
-      <c r="F8">
-        <v>17481</v>
-      </c>
-      <c r="G8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I8">
-        <v>0.05</v>
-      </c>
-      <c r="J8">
-        <v>91956.572474007553</v>
-      </c>
-      <c r="K8" s="4">
-        <v>111267452.6935491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>15.76875551632833</v>
-      </c>
-      <c r="C9">
-        <v>1.28079087848942</v>
-      </c>
-      <c r="D9">
-        <v>1133</v>
-      </c>
-      <c r="E9">
-        <v>13597</v>
-      </c>
-      <c r="F9">
-        <v>17866</v>
-      </c>
-      <c r="G9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I9">
-        <v>0.05</v>
-      </c>
-      <c r="J9">
-        <v>99644.104353129791</v>
-      </c>
-      <c r="K9" s="4">
-        <v>112896770.23209611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>17.08801498127341</v>
-      </c>
-      <c r="C10">
-        <v>1.3014086267972489</v>
-      </c>
-      <c r="D10">
-        <v>1068</v>
-      </c>
-      <c r="E10">
-        <v>13882</v>
-      </c>
-      <c r="F10">
-        <v>18250</v>
-      </c>
-      <c r="G10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I10">
-        <v>0.05</v>
-      </c>
-      <c r="J10">
-        <v>107179.54044656429</v>
-      </c>
-      <c r="K10" s="4">
-        <v>114467749.19693071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>18.413043478260871</v>
-      </c>
-      <c r="C11">
-        <v>1.3218215116944561</v>
-      </c>
-      <c r="D11">
-        <v>1012</v>
-      </c>
-      <c r="E11">
-        <v>14167</v>
-      </c>
-      <c r="F11">
-        <v>18634</v>
-      </c>
-      <c r="G11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J11">
-        <v>114602.74360748001</v>
-      </c>
-      <c r="K11" s="4">
-        <v>115977976.53076971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>19.727178423236509</v>
-      </c>
-      <c r="C12">
-        <v>1.348899646010151</v>
-      </c>
-      <c r="D12">
-        <v>964</v>
-      </c>
-      <c r="E12">
-        <v>14451</v>
-      </c>
-      <c r="F12">
-        <v>19017</v>
-      </c>
-      <c r="G12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I12">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J12">
-        <v>121925.2415240994</v>
-      </c>
-      <c r="K12" s="4">
-        <v>117535932.8292318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -972,69 +550,69 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.6311146752205294</v>
+        <v>6.5385609651012491</v>
       </c>
       <c r="C2">
-        <v>2.275185862976095</v>
+        <v>1.1078031981472429</v>
       </c>
       <c r="D2">
-        <v>1247</v>
+        <v>2321</v>
       </c>
       <c r="E2">
-        <v>6234</v>
+        <v>11601</v>
       </c>
       <c r="F2">
-        <v>8269</v>
+        <v>15176</v>
       </c>
       <c r="G2">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H2">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>51300.995235525494</v>
+        <v>37385.435122733223</v>
       </c>
       <c r="K2" s="4">
-        <v>63972341.058700293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>86771594.91986379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>7.9620893007582136</v>
+        <v>7.854618879353862</v>
       </c>
       <c r="C3" s="2">
-        <v>2.5684242101053201</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1187</v>
+        <v>1.133992507559163</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1981</v>
       </c>
       <c r="E3" s="2">
-        <v>7117</v>
+        <v>11885</v>
       </c>
       <c r="F3" s="2">
-        <v>9451</v>
+        <v>15560</v>
       </c>
       <c r="G3" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J3" s="2">
-        <v>58643.997364366012</v>
+        <v>48498.64718832956</v>
       </c>
       <c r="K3" s="5">
-        <v>69610424.871502459</v>
+        <v>96075820.080080852</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1042,34 +620,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.301837270341208</v>
+        <v>9.1737629459148451</v>
       </c>
       <c r="C4">
-        <v>2.8607646762781611</v>
+        <v>1.161953979630328</v>
       </c>
       <c r="D4">
-        <v>1143</v>
+        <v>1738</v>
       </c>
       <c r="E4">
-        <v>8000</v>
+        <v>12170</v>
       </c>
       <c r="F4">
-        <v>10632</v>
+        <v>15944</v>
       </c>
       <c r="G4">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>6.6000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J4">
-        <v>65819.969156435618</v>
+        <v>58347.748067753419</v>
       </c>
       <c r="K4" s="4">
-        <v>75232224.745805919</v>
+        <v>101408386.14175551</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1077,34 +655,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10.64144144144144</v>
+        <v>10.48747591522158</v>
       </c>
       <c r="C5">
-        <v>3.152478031634447</v>
+        <v>1.1835736657673579</v>
       </c>
       <c r="D5">
-        <v>1110</v>
+        <v>1557</v>
       </c>
       <c r="E5">
-        <v>8881</v>
+        <v>12456</v>
       </c>
       <c r="F5">
-        <v>11812</v>
+        <v>16329</v>
       </c>
       <c r="G5">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J5">
-        <v>72887.375196816982</v>
+        <v>67385.39825712773</v>
       </c>
       <c r="K5" s="4">
-        <v>80904986.468466848</v>
+        <v>104919065.08634789</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1112,34 +690,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11.974193548387101</v>
+        <v>11.802966101694921</v>
       </c>
       <c r="C6">
-        <v>3.4457057949479939</v>
+        <v>1.2049226183791599</v>
       </c>
       <c r="D6">
-        <v>1085</v>
+        <v>1416</v>
       </c>
       <c r="E6">
-        <v>9763</v>
+        <v>12741</v>
       </c>
       <c r="F6">
-        <v>12992</v>
+        <v>16713</v>
       </c>
       <c r="G6">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6">
-        <v>6.6000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J6">
-        <v>79879.650834793443</v>
+        <v>75901.22100636801</v>
       </c>
       <c r="K6" s="4">
-        <v>86669421.155750886</v>
+        <v>107476128.9450171</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1147,34 +725,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>13.318609022556389</v>
+        <v>13.13133640552995</v>
       </c>
       <c r="C7">
-        <v>3.7278723074195552</v>
+        <v>1.2324772207037671</v>
       </c>
       <c r="D7">
-        <v>1064</v>
+        <v>1302</v>
       </c>
       <c r="E7">
-        <v>10645</v>
+        <v>13026</v>
       </c>
       <c r="F7">
-        <v>14171</v>
+        <v>17097</v>
       </c>
       <c r="G7">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I7">
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J7">
-        <v>86833.334872837921</v>
+        <v>84071.111590994871</v>
       </c>
       <c r="K7" s="4">
-        <v>92390668.30469954</v>
+        <v>109460587.2914753</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1182,34 +760,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>14.65998089780325</v>
+        <v>14.447107438016531</v>
       </c>
       <c r="C8">
-        <v>4.0184363688418987</v>
+        <v>1.2534384301620549</v>
       </c>
       <c r="D8">
-        <v>1047</v>
+        <v>1210</v>
       </c>
       <c r="E8">
-        <v>11525</v>
+        <v>13311</v>
       </c>
       <c r="F8">
-        <v>15349</v>
+        <v>17481</v>
       </c>
       <c r="G8">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J8">
-        <v>93751.100702922369</v>
+        <v>91956.572474007553</v>
       </c>
       <c r="K8" s="4">
-        <v>98157402.435959727</v>
+        <v>111267452.6935491</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1217,34 +795,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>15.984526112185691</v>
+        <v>15.76875551632833</v>
       </c>
       <c r="C9">
-        <v>4.3106637969450734</v>
+        <v>1.28079087848942</v>
       </c>
       <c r="D9">
-        <v>1034</v>
+        <v>1133</v>
       </c>
       <c r="E9">
-        <v>12405</v>
+        <v>13597</v>
       </c>
       <c r="F9">
-        <v>16528</v>
+        <v>17866</v>
       </c>
       <c r="G9">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I9">
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
-        <v>100635.4188299598</v>
+        <v>99644.104353129791</v>
       </c>
       <c r="K9" s="4">
-        <v>104057023.0701784</v>
+        <v>112896770.23209611</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1252,34 +830,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>17.32387475538161</v>
+        <v>17.08801498127341</v>
       </c>
       <c r="C10">
-        <v>4.6008579088471846</v>
+        <v>1.3014086267972489</v>
       </c>
       <c r="D10">
-        <v>1022</v>
+        <v>1068</v>
       </c>
       <c r="E10">
-        <v>13285</v>
+        <v>13882</v>
       </c>
       <c r="F10">
-        <v>17705</v>
+        <v>18250</v>
       </c>
       <c r="G10">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H10">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I10">
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J10">
-        <v>107512.9810793574</v>
+        <v>107179.54044656429</v>
       </c>
       <c r="K10" s="4">
-        <v>109878266.66310319</v>
+        <v>114467749.19693071</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1287,34 +865,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>18.658102766798422</v>
+        <v>18.413043478260871</v>
       </c>
       <c r="C11">
-        <v>4.8909301727641434</v>
+        <v>1.3218215116944561</v>
       </c>
       <c r="D11">
         <v>1012</v>
       </c>
       <c r="E11">
-        <v>14165</v>
+        <v>14167</v>
       </c>
       <c r="F11">
-        <v>18882</v>
+        <v>18634</v>
       </c>
       <c r="G11">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I11">
-        <v>6.5000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J11">
-        <v>114374.55319561101</v>
+        <v>114602.74360748001</v>
       </c>
       <c r="K11" s="4">
-        <v>115747047.8339583</v>
+        <v>115977976.53076971</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1322,47 +900,48 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>19.99900299102692</v>
+        <v>19.727178423236509</v>
       </c>
       <c r="C12">
-        <v>5.1719528577453584</v>
+        <v>1.348899646010151</v>
       </c>
       <c r="D12">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="E12">
-        <v>15045</v>
+        <v>14451</v>
       </c>
       <c r="F12">
-        <v>20059</v>
+        <v>19017</v>
       </c>
       <c r="G12">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H12">
-        <v>1.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I12">
-        <v>6.5000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J12">
-        <v>121223.67382160229</v>
+        <v>121925.2415240994</v>
       </c>
       <c r="K12" s="4">
-        <v>121587344.84306709</v>
+        <v>117535932.8292318</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,69 +997,69 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.6436548223350256</v>
+        <v>6.6311146752205294</v>
       </c>
       <c r="C2">
-        <v>2.1480100125156452</v>
+        <v>2.275185862976095</v>
       </c>
       <c r="D2">
-        <v>1970</v>
+        <v>1247</v>
       </c>
       <c r="E2">
-        <v>9853</v>
+        <v>6234</v>
       </c>
       <c r="F2">
-        <v>13088</v>
+        <v>8269</v>
       </c>
       <c r="G2">
-        <v>6.0999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>0.11899999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J2">
-        <v>45014.942509636108</v>
+        <v>51300.995235525494</v>
       </c>
       <c r="K2" s="4">
-        <v>88679436.743983135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>63972341.058700293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>7.9802033172819691</v>
+        <v>7.9620893007582136</v>
       </c>
       <c r="C3" s="2">
-        <v>2.402988370133154</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1869</v>
+        <v>2.5684242101053201</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1187</v>
       </c>
       <c r="E3" s="2">
-        <v>11214</v>
+        <v>7117</v>
       </c>
       <c r="F3" s="2">
-        <v>14915</v>
+        <v>9451</v>
       </c>
       <c r="G3" s="2">
-        <v>0.06</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>0.11799999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>52842.276289182941</v>
+        <v>58643.997364366012</v>
       </c>
       <c r="K3" s="5">
-        <v>98762214.38448292</v>
+        <v>69610424.871502459</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1488,314 +1067,314 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.3207126948775052</v>
+        <v>9.301837270341208</v>
       </c>
       <c r="C4">
-        <v>2.6634013197360531</v>
+        <v>2.8607646762781611</v>
       </c>
       <c r="D4">
-        <v>1796</v>
+        <v>1143</v>
       </c>
       <c r="E4">
-        <v>12573</v>
+        <v>8000</v>
       </c>
       <c r="F4">
-        <v>16740</v>
+        <v>10632</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I4">
-        <v>0.11700000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J4">
-        <v>60349.648118939847</v>
+        <v>65819.969156435618</v>
       </c>
       <c r="K4" s="4">
-        <v>108387968.021616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+        <v>75232224.745805919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>10.66226306720276</v>
-      </c>
-      <c r="C5">
-        <v>2.9140770791075048</v>
-      </c>
-      <c r="D5">
-        <v>1741</v>
-      </c>
-      <c r="E5">
-        <v>13931</v>
-      </c>
-      <c r="F5">
-        <v>18563</v>
-      </c>
-      <c r="G5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I5">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="J5">
-        <v>67657.683254854303</v>
-      </c>
-      <c r="K5" s="4">
-        <v>117792026.5467013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B5" s="8">
+        <v>10.64144144144144</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.152478031634447</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1110</v>
+      </c>
+      <c r="E5" s="8">
+        <v>8881</v>
+      </c>
+      <c r="F5" s="8">
+        <v>11812</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>72887.375196816982</v>
+      </c>
+      <c r="K5" s="9">
+        <v>80904986.468466848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>11.99823425544438</v>
-      </c>
-      <c r="C6">
-        <v>3.1747620509671481</v>
-      </c>
-      <c r="D6">
-        <v>1699</v>
-      </c>
-      <c r="E6">
-        <v>15288</v>
-      </c>
-      <c r="F6">
-        <v>20385</v>
-      </c>
-      <c r="G6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I6">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="J6">
-        <v>74830.051601897256</v>
-      </c>
-      <c r="K6" s="4">
-        <v>127136257.67162339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B6" s="8">
+        <v>11.974193548387101</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.4457057949479939</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1085</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9763</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12992</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>79879.650834793443</v>
+      </c>
+      <c r="K6" s="9">
+        <v>86669421.155750886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>13.34495192307692</v>
-      </c>
-      <c r="C7">
-        <v>3.4241552511415518</v>
-      </c>
-      <c r="D7">
-        <v>1664</v>
-      </c>
-      <c r="E7">
-        <v>16644</v>
-      </c>
-      <c r="F7">
-        <v>22206</v>
-      </c>
-      <c r="G7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I7">
-        <v>0.115</v>
-      </c>
-      <c r="J7">
-        <v>81931.779695955935</v>
-      </c>
-      <c r="K7" s="4">
-        <v>136334481.4140707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="B7" s="8">
+        <v>13.318609022556389</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.7278723074195552</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1064</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10645</v>
+      </c>
+      <c r="F7" s="8">
+        <v>14171</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>86833.334872837921</v>
+      </c>
+      <c r="K7" s="9">
+        <v>92390668.30469954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>14.67623701893708</v>
-      </c>
-      <c r="C8">
-        <v>3.6839461370489759</v>
-      </c>
-      <c r="D8">
-        <v>1637</v>
-      </c>
-      <c r="E8">
-        <v>17999</v>
-      </c>
-      <c r="F8">
-        <v>24025</v>
-      </c>
-      <c r="G8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I8">
-        <v>0.115</v>
-      </c>
-      <c r="J8">
-        <v>88953.635587315948</v>
-      </c>
-      <c r="K8" s="4">
-        <v>145617101.45643619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="B8" s="8">
+        <v>14.65998089780325</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.0184363688418987</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1047</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11525</v>
+      </c>
+      <c r="F8" s="8">
+        <v>15349</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>93751.100702922369</v>
+      </c>
+      <c r="K8" s="9">
+        <v>98157402.435959727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>16.021698698078119</v>
-      </c>
-      <c r="C9">
-        <v>3.9418933539412668</v>
-      </c>
-      <c r="D9">
-        <v>1613</v>
-      </c>
-      <c r="E9">
-        <v>19354</v>
-      </c>
-      <c r="F9">
-        <v>25843</v>
-      </c>
-      <c r="G9">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I9">
-        <v>0.114</v>
-      </c>
-      <c r="J9">
-        <v>95945.988303791324</v>
-      </c>
-      <c r="K9" s="4">
-        <v>154760879.13401541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="B9" s="8">
+        <v>15.984526112185691</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4.3106637969450734</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1034</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12405</v>
+      </c>
+      <c r="F9" s="8">
+        <v>16528</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>100635.4188299598</v>
+      </c>
+      <c r="K9" s="9">
+        <v>104057023.0701784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>17.363465160075329</v>
-      </c>
-      <c r="C10">
-        <v>4.1918216652391473</v>
-      </c>
-      <c r="D10">
-        <v>1593</v>
-      </c>
-      <c r="E10">
-        <v>20706</v>
-      </c>
-      <c r="F10">
-        <v>27660</v>
-      </c>
-      <c r="G10">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I10">
-        <v>0.114</v>
-      </c>
-      <c r="J10">
-        <v>102899.2438386726</v>
-      </c>
-      <c r="K10" s="4">
-        <v>163918495.43500549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="B10" s="8">
+        <v>17.32387475538161</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.6008579088471846</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1022</v>
+      </c>
+      <c r="E10" s="8">
+        <v>13285</v>
+      </c>
+      <c r="F10" s="8">
+        <v>17705</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>107512.9810793574</v>
+      </c>
+      <c r="K10" s="9">
+        <v>109878266.66310319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>18.703045685279189</v>
-      </c>
-      <c r="C11">
-        <v>4.4493831649262248</v>
-      </c>
-      <c r="D11">
-        <v>1576</v>
-      </c>
-      <c r="E11">
-        <v>22060</v>
-      </c>
-      <c r="F11">
-        <v>29476</v>
-      </c>
-      <c r="G11">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I11">
-        <v>0.114</v>
-      </c>
-      <c r="J11">
-        <v>109825.88086228049</v>
-      </c>
-      <c r="K11" s="4">
-        <v>173085588.23895401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B11" s="8">
+        <v>18.658102766798422</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4.8909301727641434</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1012</v>
+      </c>
+      <c r="E11" s="8">
+        <v>14165</v>
+      </c>
+      <c r="F11" s="8">
+        <v>18882</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>114374.55319561101</v>
+      </c>
+      <c r="K11" s="9">
+        <v>115747047.8339583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>20.044843049327358</v>
-      </c>
-      <c r="C12">
-        <v>4.6988492758236511</v>
-      </c>
-      <c r="D12">
-        <v>1561</v>
-      </c>
-      <c r="E12">
-        <v>23411</v>
-      </c>
-      <c r="F12">
-        <v>31290</v>
-      </c>
-      <c r="G12">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I12">
-        <v>0.113</v>
-      </c>
-      <c r="J12">
-        <v>116733.9316851437</v>
-      </c>
-      <c r="K12" s="4">
-        <v>182221667.36050931</v>
+      <c r="B12" s="8">
+        <v>19.99900299102692</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5.1719528577453584</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1003</v>
+      </c>
+      <c r="E12" s="8">
+        <v>15045</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20059</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>121223.67382160229</v>
+      </c>
+      <c r="K12" s="9">
+        <v>121587344.84306709</v>
       </c>
     </row>
   </sheetData>
@@ -1803,12 +1382,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1864,69 +1443,69 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.7366167023554606</v>
+        <v>6.6436548223350256</v>
       </c>
       <c r="C2">
-        <v>2.4867297355407438</v>
+        <v>2.1480100125156452</v>
       </c>
       <c r="D2">
-        <v>1401</v>
+        <v>1970</v>
       </c>
       <c r="E2">
-        <v>7007</v>
+        <v>9853</v>
       </c>
       <c r="F2">
-        <v>9438</v>
+        <v>13088</v>
       </c>
       <c r="G2">
-        <v>3.3000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H2">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J2">
-        <v>49764.755640010793</v>
+        <v>45014.942509636108</v>
       </c>
       <c r="K2" s="4">
-        <v>69720422.651655108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>88679436.743983135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8.0857354028085737</v>
+        <v>7.9802033172819691</v>
       </c>
       <c r="C3" s="2">
-        <v>2.8341545893719799</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1353</v>
+        <v>2.402988370133154</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1869</v>
       </c>
       <c r="E3" s="2">
-        <v>8117</v>
+        <v>11214</v>
       </c>
       <c r="F3" s="2">
-        <v>10940</v>
+        <v>14915</v>
       </c>
       <c r="G3" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H3" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="2">
-        <v>6.3E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>56820.310183833237</v>
+        <v>52842.276289182941</v>
       </c>
       <c r="K3" s="5">
-        <v>76877879.678726375</v>
+        <v>98762214.38448292</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1934,34 +1513,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.4457099468488988</v>
+        <v>9.3207126948775052</v>
       </c>
       <c r="C4">
-        <v>3.1903767701701971</v>
+        <v>2.6634013197360531</v>
       </c>
       <c r="D4">
-        <v>1317</v>
+        <v>1796</v>
       </c>
       <c r="E4">
-        <v>9225</v>
+        <v>12573</v>
       </c>
       <c r="F4">
-        <v>12440</v>
+        <v>16740</v>
       </c>
       <c r="G4">
-        <v>3.2000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>6.3E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J4">
-        <v>63799.359723231741</v>
+        <v>60349.648118939847</v>
       </c>
       <c r="K4" s="4">
-        <v>84023756.755496204</v>
+        <v>108387968.021616</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1969,278 +1548,724 @@
         <v>8</v>
       </c>
       <c r="B5">
+        <v>10.66226306720276</v>
+      </c>
+      <c r="C5">
+        <v>2.9140770791075048</v>
+      </c>
+      <c r="D5">
+        <v>1741</v>
+      </c>
+      <c r="E5">
+        <v>13931</v>
+      </c>
+      <c r="F5">
+        <v>18563</v>
+      </c>
+      <c r="G5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J5">
+        <v>67657.683254854303</v>
+      </c>
+      <c r="K5" s="4">
+        <v>117792026.5467013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11.99823425544438</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.1747620509671481</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1699</v>
+      </c>
+      <c r="E6" s="8">
+        <v>15288</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20385</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J6" s="8">
+        <v>74830.051601897256</v>
+      </c>
+      <c r="K6" s="9">
+        <v>127136257.67162339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>13.34495192307692</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.4241552511415518</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1664</v>
+      </c>
+      <c r="E7" s="8">
+        <v>16644</v>
+      </c>
+      <c r="F7" s="8">
+        <v>22206</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="J7" s="8">
+        <v>81931.779695955935</v>
+      </c>
+      <c r="K7" s="9">
+        <v>136334481.4140707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14.67623701893708</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.6839461370489759</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1637</v>
+      </c>
+      <c r="E8" s="8">
+        <v>17999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>24025</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="J8" s="8">
+        <v>88953.635587315948</v>
+      </c>
+      <c r="K8" s="9">
+        <v>145617101.45643619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16.021698698078119</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.9418933539412668</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1613</v>
+      </c>
+      <c r="E9" s="8">
+        <v>19354</v>
+      </c>
+      <c r="F9" s="8">
+        <v>25843</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="J9" s="8">
+        <v>95945.988303791324</v>
+      </c>
+      <c r="K9" s="9">
+        <v>154760879.13401541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>17.363465160075329</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.1918216652391473</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1593</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20706</v>
+      </c>
+      <c r="F10" s="8">
+        <v>27660</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="J10" s="8">
+        <v>102899.2438386726</v>
+      </c>
+      <c r="K10" s="9">
+        <v>163918495.43500549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
+        <v>18.703045685279189</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4.4493831649262248</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1576</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22060</v>
+      </c>
+      <c r="F11" s="8">
+        <v>29476</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="J11" s="8">
+        <v>109825.88086228049</v>
+      </c>
+      <c r="K11" s="9">
+        <v>173085588.23895401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20.044843049327358</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4.6988492758236511</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1561</v>
+      </c>
+      <c r="E12" s="8">
+        <v>23411</v>
+      </c>
+      <c r="F12" s="8">
+        <v>31290</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="J12" s="8">
+        <v>116733.9316851437</v>
+      </c>
+      <c r="K12" s="9">
+        <v>182221667.36050931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6.7366167023554606</v>
+      </c>
+      <c r="C2">
+        <v>2.4867297355407438</v>
+      </c>
+      <c r="D2">
+        <v>1401</v>
+      </c>
+      <c r="E2">
+        <v>7007</v>
+      </c>
+      <c r="F2">
+        <v>9438</v>
+      </c>
+      <c r="G2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>49764.755640010793</v>
+      </c>
+      <c r="K2" s="4">
+        <v>69720422.651655108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.0857354028085737</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.8341545893719799</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1353</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8117</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10940</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>56820.310183833237</v>
+      </c>
+      <c r="K3" s="5">
+        <v>76877879.678726375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9.4457099468488988</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.1903767701701971</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1317</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9225</v>
+      </c>
+      <c r="F4" s="8">
+        <v>12440</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>63799.359723231741</v>
+      </c>
+      <c r="K4" s="9">
+        <v>84023756.755496204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
         <v>10.79705654531371</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>3.537116060961313</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>1291</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>10332</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>13939</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>70718.705349071839</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="9">
         <v>91297848.605651736</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>12.14555468135327</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>3.8836379062785529</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>1271</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>11440</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>15437</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>77599.134083737517</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="9">
         <v>98628499.420430377</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>13.49402390438247</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>4.2290258229234237</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>1255</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>12546</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>16935</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>84461.376650895298</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="9">
         <v>105999027.69687361</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>14.85173247381144</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>4.5846538194804696</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>1241</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>13651</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>18431</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>91314.57340590471</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="9">
         <v>113321385.5967277</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>16.2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>4.9308407305171054</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>1230</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>14756</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>19926</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>98137.675017615082</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="9">
         <v>120709340.2716665</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>17.559016393442619</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>5.2769492717934279</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>1220</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>15861</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>21422</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>104962.1171355012</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="9">
         <v>128053782.9053115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>18.922378199834849</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>5.6229949305303002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>1211</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>16964</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>22915</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>111788.9764638006</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="9">
         <v>135376450.49766251</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>20.271594684385381</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>5.9689893654193193</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>1204</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>18067</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>24407</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>118595.78443581139</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="9">
         <v>142789324.46071699</v>
       </c>
     </row>
